--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBDC18E-FA88-40F3-87DE-1798D1625B89}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4ED01-1640-4243-BD07-DEE6A1132C7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="11" r:id="rId1"/>
     <sheet name="Dữ liệu dự án" sheetId="5" r:id="rId2"/>
-    <sheet name="SV (Schedule Variance)" sheetId="12" r:id="rId3"/>
-    <sheet name="Thời gian" sheetId="7" r:id="rId4"/>
-    <sheet name="Cơ cấu CV" sheetId="10" r:id="rId5"/>
-    <sheet name="Tổng quan" sheetId="9" r:id="rId6"/>
-    <sheet name="Ngân sách" sheetId="8" r:id="rId7"/>
+    <sheet name="Burndown chart" sheetId="13" r:id="rId3"/>
+    <sheet name="SV (Schedule Variance)" sheetId="12" r:id="rId4"/>
+    <sheet name="Thời gian" sheetId="7" r:id="rId5"/>
+    <sheet name="Cơ cấu CV" sheetId="10" r:id="rId6"/>
+    <sheet name="Tổng quan" sheetId="9" r:id="rId7"/>
+    <sheet name="Ngân sách" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="136">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -485,6 +486,18 @@
   <si>
     <t>Tổng ngày làm dự án (ngày)</t>
   </si>
+  <si>
+    <t>Số tuần</t>
+  </si>
+  <si>
+    <t>Số công việc</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t>Tháng</t>
+  </si>
 </sst>
 </file>
 
@@ -786,7 +799,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1095,6 +1108,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1111,7 +1196,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1327,6 +1412,12 @@
     <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1384,8 +1475,26 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1423,6 +1532,646 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="vi-VN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Burndown Chart</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown chart'!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số tuần</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown chart'!$A$2:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D571-4C83-A0A1-BEB12FCE9862}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Burndown chart'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Số công việc</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown chart'!$D$2:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="44"/>
+                <c:pt idx="0">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D571-4C83-A0A1-BEB12FCE9862}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1750306639"/>
+        <c:axId val="1567281263"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1750306639"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ngày</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1567281263"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1567281263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Công</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> việc</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1750306639"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -2143,7 +2892,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -4633,7 +5382,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -4916,7 +5665,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -5120,7 +5869,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="vi-VN"/>
@@ -5385,6 +6134,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5941,6 +6730,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="298">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6462,6 +7767,47 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>987797</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29134</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>974911</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150158</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Biểu đồ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8170BD-C84B-4275-A02E-813EED6E3D79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -6501,7 +7847,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6544,7 +7890,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6587,7 +7933,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6630,7 +7976,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7012,18 +8358,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="75"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="77"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -7042,16 +8388,16 @@
       <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="76"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="78"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
       <c r="K2" s="35"/>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
@@ -7070,24 +8416,24 @@
       <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="78"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="80"/>
       <c r="K3" s="38"/>
       <c r="L3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="79" t="s">
+      <c r="M3" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="80"/>
+      <c r="N3" s="82"/>
       <c r="O3" s="40"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
@@ -7102,24 +8448,24 @@
       <c r="Z3" s="35"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="76"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="78"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
       <c r="K4" s="38"/>
       <c r="L4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="79" t="s">
+      <c r="M4" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="80"/>
+      <c r="N4" s="82"/>
       <c r="O4" s="40"/>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
@@ -7134,24 +8480,24 @@
       <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="76"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="78"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="80"/>
       <c r="K5" s="38"/>
       <c r="L5" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="79" t="s">
+      <c r="M5" s="81" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="80"/>
+      <c r="N5" s="82"/>
       <c r="O5" s="40"/>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
@@ -7166,24 +8512,24 @@
       <c r="Z5" s="35"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="76"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="80"/>
       <c r="K6" s="38"/>
       <c r="L6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="79" t="s">
+      <c r="M6" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="80"/>
+      <c r="N6" s="82"/>
       <c r="O6" s="40"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
@@ -7198,24 +8544,24 @@
       <c r="Z6" s="35"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="76"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="78"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="80"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="81">
+      <c r="M7" s="83">
         <v>43508</v>
       </c>
-      <c r="N7" s="82"/>
+      <c r="N7" s="84"/>
       <c r="O7" s="40"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -7230,16 +8576,16 @@
       <c r="Z7" s="35"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="78"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="80"/>
       <c r="K8" s="35"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -7258,16 +8604,16 @@
       <c r="Z8" s="35"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="76"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="78"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="80"/>
       <c r="K9" s="35"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -7286,16 +8632,16 @@
       <c r="Z9" s="35"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="78"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="80"/>
       <c r="K10" s="35"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -7314,23 +8660,23 @@
       <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="78"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="80"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="83" t="s">
+      <c r="L11" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="85"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="87"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
@@ -7344,16 +8690,16 @@
       <c r="Z11" s="35"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="78"/>
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="80"/>
       <c r="K12" s="38"/>
       <c r="L12" s="43" t="s">
         <v>65</v>
@@ -7380,16 +8726,16 @@
       <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="78"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="80"/>
       <c r="K13" s="38"/>
       <c r="L13" s="44" t="s">
         <v>69</v>
@@ -7416,16 +8762,16 @@
       <c r="Z13" s="35"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="80"/>
       <c r="K14" s="38"/>
       <c r="L14" s="48"/>
       <c r="M14" s="49"/>
@@ -7444,16 +8790,16 @@
       <c r="Z14" s="35"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="78"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="79"/>
+      <c r="I15" s="79"/>
+      <c r="J15" s="80"/>
       <c r="K15" s="38"/>
       <c r="L15" s="48"/>
       <c r="M15" s="49"/>
@@ -7472,16 +8818,16 @@
       <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="79"/>
+      <c r="J16" s="80"/>
       <c r="K16" s="38"/>
       <c r="L16" s="50"/>
       <c r="M16" s="51"/>
@@ -7500,16 +8846,16 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="78"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="80"/>
       <c r="K17" s="38"/>
       <c r="L17" s="50"/>
       <c r="M17" s="51"/>
@@ -7528,16 +8874,16 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="80"/>
       <c r="K18" s="38"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
@@ -7556,16 +8902,16 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="78"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="80"/>
       <c r="K19" s="38"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
@@ -7584,16 +8930,16 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="80"/>
       <c r="K20" s="38"/>
       <c r="L20" s="50"/>
       <c r="M20" s="51"/>
@@ -35072,8 +36418,8 @@
   </sheetPr>
   <dimension ref="A2:T129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84:G85"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -35197,7 +36543,7 @@
       <c r="J5" s="22">
         <v>15</v>
       </c>
-      <c r="L5" s="88" t="s">
+      <c r="L5" s="90" t="s">
         <v>96</v>
       </c>
     </row>
@@ -35233,7 +36579,7 @@
       <c r="J6" s="22">
         <v>7</v>
       </c>
-      <c r="L6" s="88"/>
+      <c r="L6" s="90"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="65">
@@ -35267,7 +36613,7 @@
       <c r="J7" s="22">
         <v>7</v>
       </c>
-      <c r="L7" s="88"/>
+      <c r="L7" s="90"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="65">
@@ -35301,7 +36647,7 @@
       <c r="J8" s="22">
         <v>15</v>
       </c>
-      <c r="L8" s="88"/>
+      <c r="L8" s="90"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="65">
@@ -35335,7 +36681,7 @@
       <c r="J9" s="22">
         <v>7</v>
       </c>
-      <c r="L9" s="88"/>
+      <c r="L9" s="90"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="65">
@@ -35369,7 +36715,7 @@
       <c r="J10" s="22">
         <v>21</v>
       </c>
-      <c r="L10" s="88"/>
+      <c r="L10" s="90"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="65">
@@ -35403,7 +36749,7 @@
       <c r="J11" s="22">
         <v>7</v>
       </c>
-      <c r="L11" s="88"/>
+      <c r="L11" s="90"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="65">
@@ -35437,7 +36783,7 @@
       <c r="J12" s="22">
         <v>16</v>
       </c>
-      <c r="L12" s="88"/>
+      <c r="L12" s="90"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="65">
@@ -37057,10 +38403,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1">
-      <c r="A62" s="86" t="s">
+      <c r="A62" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="87"/>
+      <c r="B62" s="89"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12">
         <v>43822</v>
@@ -37144,11 +38490,11 @@
       <c r="C68" s="6">
         <v>0</v>
       </c>
-      <c r="E68" s="89" t="s">
+      <c r="E68" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="90"/>
-      <c r="G68" s="91"/>
+      <c r="F68" s="92"/>
+      <c r="G68" s="93"/>
       <c r="H68" s="4"/>
       <c r="I68" s="28"/>
       <c r="J68" s="4"/>
@@ -37357,7 +38703,7 @@
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="2:20" ht="25.5">
-      <c r="E84" s="92" t="s">
+      <c r="E84" s="73" t="s">
         <v>131</v>
       </c>
       <c r="F84" s="70" t="s">
@@ -37378,14 +38724,14 @@
         <v>103</v>
       </c>
       <c r="E85" s="5">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="F85" s="7">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G85" s="72">
         <f>SUM(E85-F85)</f>
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="28"/>
@@ -37883,6 +39229,653 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{459D6F3C-0354-46F3-94FB-98A1884E8EC8}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.125" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="16384" width="30.125" style="74"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="94" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="94" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="95" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="100">
+        <v>1</v>
+      </c>
+      <c r="B2" s="97">
+        <v>23</v>
+      </c>
+      <c r="C2" s="96">
+        <v>12</v>
+      </c>
+      <c r="D2" s="97">
+        <v>58</v>
+      </c>
+      <c r="E2" s="97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="100"/>
+      <c r="B3" s="97">
+        <v>24</v>
+      </c>
+      <c r="C3" s="98"/>
+      <c r="D3" s="97">
+        <v>57</v>
+      </c>
+      <c r="E3" s="97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="100"/>
+      <c r="B4" s="97">
+        <v>25</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="97">
+        <v>56</v>
+      </c>
+      <c r="E4" s="97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="100"/>
+      <c r="B5" s="97">
+        <v>26</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="97">
+        <v>55</v>
+      </c>
+      <c r="E5" s="97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="100"/>
+      <c r="B6" s="97">
+        <v>27</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="97">
+        <v>54</v>
+      </c>
+      <c r="E6" s="97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="100"/>
+      <c r="B7" s="97">
+        <v>28</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="97">
+        <v>53</v>
+      </c>
+      <c r="E7" s="97">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="100"/>
+      <c r="B8" s="97">
+        <v>29</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="97">
+        <v>52</v>
+      </c>
+      <c r="E8" s="97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="100">
+        <v>2</v>
+      </c>
+      <c r="B9" s="97">
+        <v>30</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="97">
+        <v>51</v>
+      </c>
+      <c r="E9" s="97">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="100"/>
+      <c r="B10" s="97">
+        <v>31</v>
+      </c>
+      <c r="C10" s="99"/>
+      <c r="D10" s="97">
+        <v>50</v>
+      </c>
+      <c r="E10" s="97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="100"/>
+      <c r="B11" s="97">
+        <v>1</v>
+      </c>
+      <c r="C11" s="96">
+        <v>1</v>
+      </c>
+      <c r="D11" s="97">
+        <v>49</v>
+      </c>
+      <c r="E11" s="97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="100"/>
+      <c r="B12" s="97">
+        <v>2</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="97">
+        <v>48</v>
+      </c>
+      <c r="E12" s="97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="100"/>
+      <c r="B13" s="97">
+        <v>3</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="97">
+        <v>47</v>
+      </c>
+      <c r="E13" s="97">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="100"/>
+      <c r="B14" s="97">
+        <v>4</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="97">
+        <v>46</v>
+      </c>
+      <c r="E14" s="97">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="100"/>
+      <c r="B15" s="97">
+        <v>5</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="97">
+        <v>45</v>
+      </c>
+      <c r="E15" s="97">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="100">
+        <v>3</v>
+      </c>
+      <c r="B16" s="97">
+        <v>6</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="97">
+        <v>44</v>
+      </c>
+      <c r="E16" s="97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="100"/>
+      <c r="B17" s="97">
+        <v>7</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="97">
+        <v>43</v>
+      </c>
+      <c r="E17" s="97">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="100"/>
+      <c r="B18" s="97">
+        <v>8</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="97">
+        <v>42</v>
+      </c>
+      <c r="E18" s="97">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="100"/>
+      <c r="B19" s="97">
+        <v>9</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="97">
+        <v>41</v>
+      </c>
+      <c r="E19" s="97">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="100"/>
+      <c r="B20" s="97">
+        <v>10</v>
+      </c>
+      <c r="C20" s="98"/>
+      <c r="D20" s="97">
+        <v>40</v>
+      </c>
+      <c r="E20" s="97">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="100"/>
+      <c r="B21" s="97">
+        <v>11</v>
+      </c>
+      <c r="C21" s="98"/>
+      <c r="D21" s="97">
+        <v>39</v>
+      </c>
+      <c r="E21" s="97">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="100"/>
+      <c r="B22" s="97">
+        <v>12</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="97">
+        <v>38</v>
+      </c>
+      <c r="E22" s="97">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="100">
+        <v>4</v>
+      </c>
+      <c r="B23" s="97">
+        <v>13</v>
+      </c>
+      <c r="C23" s="98"/>
+      <c r="D23" s="97">
+        <v>37</v>
+      </c>
+      <c r="E23" s="97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="100"/>
+      <c r="B24" s="97">
+        <v>14</v>
+      </c>
+      <c r="C24" s="99"/>
+      <c r="D24" s="97">
+        <v>36</v>
+      </c>
+      <c r="E24" s="97">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="100"/>
+      <c r="B25" s="97">
+        <v>18</v>
+      </c>
+      <c r="C25" s="96">
+        <v>2</v>
+      </c>
+      <c r="D25" s="97">
+        <v>35</v>
+      </c>
+      <c r="E25" s="97">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="100"/>
+      <c r="B26" s="97">
+        <v>19</v>
+      </c>
+      <c r="C26" s="98"/>
+      <c r="D26" s="97">
+        <v>34</v>
+      </c>
+      <c r="E26" s="97">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="100"/>
+      <c r="B27" s="97">
+        <v>20</v>
+      </c>
+      <c r="C27" s="98"/>
+      <c r="D27" s="97">
+        <v>33</v>
+      </c>
+      <c r="E27" s="97">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="100">
+        <v>5</v>
+      </c>
+      <c r="B28" s="97">
+        <v>21</v>
+      </c>
+      <c r="C28" s="98"/>
+      <c r="D28" s="97">
+        <v>32</v>
+      </c>
+      <c r="E28" s="97">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="100"/>
+      <c r="B29" s="97">
+        <v>22</v>
+      </c>
+      <c r="C29" s="98"/>
+      <c r="D29" s="97">
+        <v>31</v>
+      </c>
+      <c r="E29" s="97">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="100"/>
+      <c r="B30" s="97">
+        <v>23</v>
+      </c>
+      <c r="C30" s="98"/>
+      <c r="D30" s="97">
+        <v>30</v>
+      </c>
+      <c r="E30" s="97">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="100"/>
+      <c r="B31" s="97">
+        <v>24</v>
+      </c>
+      <c r="C31" s="98"/>
+      <c r="D31" s="97">
+        <v>28</v>
+      </c>
+      <c r="E31" s="97">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="100"/>
+      <c r="B32" s="97">
+        <v>25</v>
+      </c>
+      <c r="C32" s="98"/>
+      <c r="D32" s="97">
+        <v>26</v>
+      </c>
+      <c r="E32" s="97">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="100"/>
+      <c r="B33" s="97">
+        <v>26</v>
+      </c>
+      <c r="C33" s="98"/>
+      <c r="D33" s="97">
+        <v>24</v>
+      </c>
+      <c r="E33" s="97">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="100">
+        <v>6</v>
+      </c>
+      <c r="B34" s="97">
+        <v>27</v>
+      </c>
+      <c r="C34" s="98"/>
+      <c r="D34" s="97">
+        <v>22</v>
+      </c>
+      <c r="E34" s="97">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="100"/>
+      <c r="B35" s="97">
+        <v>28</v>
+      </c>
+      <c r="C35" s="98"/>
+      <c r="D35" s="97">
+        <v>20</v>
+      </c>
+      <c r="E35" s="97">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="100"/>
+      <c r="B36" s="97">
+        <v>29</v>
+      </c>
+      <c r="C36" s="99"/>
+      <c r="D36" s="97">
+        <v>18</v>
+      </c>
+      <c r="E36" s="97">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="100"/>
+      <c r="B37" s="97">
+        <v>1</v>
+      </c>
+      <c r="C37" s="100">
+        <v>3</v>
+      </c>
+      <c r="D37" s="97">
+        <v>16</v>
+      </c>
+      <c r="E37" s="97">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="100"/>
+      <c r="B38" s="97">
+        <v>2</v>
+      </c>
+      <c r="C38" s="100"/>
+      <c r="D38" s="97">
+        <v>14</v>
+      </c>
+      <c r="E38" s="97">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="100">
+        <v>7</v>
+      </c>
+      <c r="B39" s="97">
+        <v>3</v>
+      </c>
+      <c r="C39" s="100"/>
+      <c r="D39" s="97">
+        <v>12</v>
+      </c>
+      <c r="E39" s="97">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="100"/>
+      <c r="B40" s="97">
+        <v>4</v>
+      </c>
+      <c r="C40" s="100"/>
+      <c r="D40" s="97">
+        <v>10</v>
+      </c>
+      <c r="E40" s="97">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="100"/>
+      <c r="B41" s="97">
+        <v>5</v>
+      </c>
+      <c r="C41" s="100"/>
+      <c r="D41" s="97">
+        <v>8</v>
+      </c>
+      <c r="E41" s="97">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="100"/>
+      <c r="B42" s="97">
+        <v>6</v>
+      </c>
+      <c r="C42" s="100"/>
+      <c r="D42" s="97">
+        <v>6</v>
+      </c>
+      <c r="E42" s="97">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="100"/>
+      <c r="B43" s="97">
+        <v>7</v>
+      </c>
+      <c r="C43" s="100"/>
+      <c r="D43" s="97">
+        <v>4</v>
+      </c>
+      <c r="E43" s="97">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="100">
+        <v>8</v>
+      </c>
+      <c r="B44" s="97">
+        <v>8</v>
+      </c>
+      <c r="C44" s="100"/>
+      <c r="D44" s="97">
+        <v>2</v>
+      </c>
+      <c r="E44" s="97">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="100"/>
+      <c r="B45" s="97">
+        <v>9</v>
+      </c>
+      <c r="C45" s="100"/>
+      <c r="D45" s="97">
+        <v>0</v>
+      </c>
+      <c r="E45" s="97">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="C2:C10"/>
+    <mergeCell ref="C11:C24"/>
+    <mergeCell ref="C25:C36"/>
+    <mergeCell ref="C37:C45"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A34:A38"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80784C9B-3ECD-4279-BB98-B058DB3A93B4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -37897,7 +39890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -37912,7 +39905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -37927,7 +39920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -37942,7 +39935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C4ED01-1640-4243-BD07-DEE6A1132C7A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1DE93-2D3A-4556-8299-BFC54D7E10C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1418,6 +1418,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1475,26 +1484,17 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -8358,18 +8358,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
       <c r="K1" s="35"/>
       <c r="L1" s="35"/>
       <c r="M1" s="35"/>
@@ -8388,16 +8388,16 @@
       <c r="Z1" s="35"/>
     </row>
     <row r="2" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="83"/>
       <c r="K2" s="35"/>
       <c r="L2" s="37"/>
       <c r="M2" s="37"/>
@@ -8416,24 +8416,24 @@
       <c r="Z2" s="35"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="80"/>
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
       <c r="K3" s="38"/>
       <c r="L3" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="M3" s="81" t="s">
+      <c r="M3" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="N3" s="82"/>
+      <c r="N3" s="85"/>
       <c r="O3" s="40"/>
       <c r="P3" s="35"/>
       <c r="Q3" s="35"/>
@@ -8448,24 +8448,24 @@
       <c r="Z3" s="35"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="80"/>
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="83"/>
       <c r="K4" s="38"/>
       <c r="L4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="81" t="s">
+      <c r="M4" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="82"/>
+      <c r="N4" s="85"/>
       <c r="O4" s="40"/>
       <c r="P4" s="35"/>
       <c r="Q4" s="35"/>
@@ -8480,24 +8480,24 @@
       <c r="Z4" s="35"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="80"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
       <c r="K5" s="38"/>
       <c r="L5" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="M5" s="81" t="s">
+      <c r="M5" s="84" t="s">
         <v>127</v>
       </c>
-      <c r="N5" s="82"/>
+      <c r="N5" s="85"/>
       <c r="O5" s="40"/>
       <c r="P5" s="35"/>
       <c r="Q5" s="35"/>
@@ -8512,24 +8512,24 @@
       <c r="Z5" s="35"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="80"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
       <c r="K6" s="38"/>
       <c r="L6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="M6" s="81" t="s">
+      <c r="M6" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="N6" s="82"/>
+      <c r="N6" s="85"/>
       <c r="O6" s="40"/>
       <c r="P6" s="35"/>
       <c r="Q6" s="35"/>
@@ -8544,24 +8544,24 @@
       <c r="Z6" s="35"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="79"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="80"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="M7" s="83">
+      <c r="M7" s="86">
         <v>43508</v>
       </c>
-      <c r="N7" s="84"/>
+      <c r="N7" s="87"/>
       <c r="O7" s="40"/>
       <c r="P7" s="35"/>
       <c r="Q7" s="35"/>
@@ -8576,16 +8576,16 @@
       <c r="Z7" s="35"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="83"/>
       <c r="K8" s="35"/>
       <c r="L8" s="40"/>
       <c r="M8" s="40"/>
@@ -8604,16 +8604,16 @@
       <c r="Z8" s="35"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="80"/>
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="83"/>
       <c r="K9" s="35"/>
       <c r="L9" s="40"/>
       <c r="M9" s="40"/>
@@ -8632,16 +8632,16 @@
       <c r="Z9" s="35"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="80"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="35"/>
       <c r="L10" s="42"/>
       <c r="M10" s="42"/>
@@ -8660,23 +8660,23 @@
       <c r="Z10" s="35"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="79"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="80"/>
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="83"/>
       <c r="K11" s="38"/>
-      <c r="L11" s="85" t="s">
+      <c r="L11" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="87"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="90"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
@@ -8690,16 +8690,16 @@
       <c r="Z11" s="35"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="80"/>
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="83"/>
       <c r="K12" s="38"/>
       <c r="L12" s="43" t="s">
         <v>65</v>
@@ -8726,16 +8726,16 @@
       <c r="Z12" s="35"/>
     </row>
     <row r="13" spans="1:26" ht="46.5" thickBot="1">
-      <c r="A13" s="78"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="80"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="83"/>
       <c r="K13" s="38"/>
       <c r="L13" s="44" t="s">
         <v>69</v>
@@ -8762,16 +8762,16 @@
       <c r="Z13" s="35"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="78"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="80"/>
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="83"/>
       <c r="K14" s="38"/>
       <c r="L14" s="48"/>
       <c r="M14" s="49"/>
@@ -8790,16 +8790,16 @@
       <c r="Z14" s="35"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="79"/>
-      <c r="I15" s="79"/>
-      <c r="J15" s="80"/>
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="83"/>
       <c r="K15" s="38"/>
       <c r="L15" s="48"/>
       <c r="M15" s="49"/>
@@ -8818,16 +8818,16 @@
       <c r="Z15" s="35"/>
     </row>
     <row r="16" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A16" s="78"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="79"/>
-      <c r="I16" s="79"/>
-      <c r="J16" s="80"/>
+      <c r="A16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="83"/>
       <c r="K16" s="38"/>
       <c r="L16" s="50"/>
       <c r="M16" s="51"/>
@@ -8846,16 +8846,16 @@
       <c r="Z16" s="35"/>
     </row>
     <row r="17" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A17" s="78"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="80"/>
+      <c r="A17" s="81"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="82"/>
+      <c r="I17" s="82"/>
+      <c r="J17" s="83"/>
       <c r="K17" s="38"/>
       <c r="L17" s="50"/>
       <c r="M17" s="51"/>
@@ -8874,16 +8874,16 @@
       <c r="Z17" s="35"/>
     </row>
     <row r="18" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="80"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="83"/>
       <c r="K18" s="38"/>
       <c r="L18" s="50"/>
       <c r="M18" s="51"/>
@@ -8902,16 +8902,16 @@
       <c r="Z18" s="35"/>
     </row>
     <row r="19" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="80"/>
+      <c r="A19" s="81"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="83"/>
       <c r="K19" s="38"/>
       <c r="L19" s="50"/>
       <c r="M19" s="51"/>
@@ -8930,16 +8930,16 @@
       <c r="Z19" s="35"/>
     </row>
     <row r="20" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A20" s="78"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="80"/>
+      <c r="A20" s="81"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="83"/>
       <c r="K20" s="38"/>
       <c r="L20" s="50"/>
       <c r="M20" s="51"/>
@@ -36418,8 +36418,8 @@
   </sheetPr>
   <dimension ref="A2:T129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -36543,7 +36543,7 @@
       <c r="J5" s="22">
         <v>15</v>
       </c>
-      <c r="L5" s="90" t="s">
+      <c r="L5" s="93" t="s">
         <v>96</v>
       </c>
     </row>
@@ -36579,7 +36579,7 @@
       <c r="J6" s="22">
         <v>7</v>
       </c>
-      <c r="L6" s="90"/>
+      <c r="L6" s="93"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="65">
@@ -36613,7 +36613,7 @@
       <c r="J7" s="22">
         <v>7</v>
       </c>
-      <c r="L7" s="90"/>
+      <c r="L7" s="93"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="65">
@@ -36647,7 +36647,7 @@
       <c r="J8" s="22">
         <v>15</v>
       </c>
-      <c r="L8" s="90"/>
+      <c r="L8" s="93"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="65">
@@ -36681,7 +36681,7 @@
       <c r="J9" s="22">
         <v>7</v>
       </c>
-      <c r="L9" s="90"/>
+      <c r="L9" s="93"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1">
       <c r="A10" s="65">
@@ -36715,7 +36715,7 @@
       <c r="J10" s="22">
         <v>21</v>
       </c>
-      <c r="L10" s="90"/>
+      <c r="L10" s="93"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1">
       <c r="A11" s="65">
@@ -36749,7 +36749,7 @@
       <c r="J11" s="22">
         <v>7</v>
       </c>
-      <c r="L11" s="90"/>
+      <c r="L11" s="93"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1">
       <c r="A12" s="65">
@@ -36783,7 +36783,7 @@
       <c r="J12" s="22">
         <v>16</v>
       </c>
-      <c r="L12" s="90"/>
+      <c r="L12" s="93"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1">
       <c r="A13" s="65">
@@ -38403,10 +38403,10 @@
       </c>
     </row>
     <row r="62" spans="1:10" ht="15" customHeight="1">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="89"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="11"/>
       <c r="D62" s="12">
         <v>43822</v>
@@ -38490,11 +38490,11 @@
       <c r="C68" s="6">
         <v>0</v>
       </c>
-      <c r="E68" s="91" t="s">
+      <c r="E68" s="94" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="92"/>
-      <c r="G68" s="93"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="96"/>
       <c r="H68" s="4"/>
       <c r="I68" s="28"/>
       <c r="J68" s="4"/>
@@ -39243,615 +39243,615 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="75" t="s">
         <v>135</v>
       </c>
-      <c r="D1" s="94" t="s">
+      <c r="D1" s="75" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="95" t="s">
+      <c r="E1" s="76" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="100">
+      <c r="A2" s="97">
         <v>1</v>
       </c>
-      <c r="B2" s="97">
+      <c r="B2" s="77">
         <v>23</v>
       </c>
-      <c r="C2" s="96">
+      <c r="C2" s="98">
         <v>12</v>
       </c>
-      <c r="D2" s="97">
+      <c r="D2" s="77">
         <v>58</v>
       </c>
-      <c r="E2" s="97">
+      <c r="E2" s="77">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="100"/>
-      <c r="B3" s="97">
+      <c r="A3" s="97"/>
+      <c r="B3" s="77">
         <v>24</v>
       </c>
-      <c r="C3" s="98"/>
-      <c r="D3" s="97">
+      <c r="C3" s="99"/>
+      <c r="D3" s="77">
         <v>57</v>
       </c>
-      <c r="E3" s="97">
+      <c r="E3" s="77">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="100"/>
-      <c r="B4" s="97">
+      <c r="A4" s="97"/>
+      <c r="B4" s="77">
         <v>25</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="97">
+      <c r="C4" s="99"/>
+      <c r="D4" s="77">
         <v>56</v>
       </c>
-      <c r="E4" s="97">
+      <c r="E4" s="77">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="100"/>
-      <c r="B5" s="97">
+      <c r="A5" s="97"/>
+      <c r="B5" s="77">
         <v>26</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="97">
+      <c r="C5" s="99"/>
+      <c r="D5" s="77">
         <v>55</v>
       </c>
-      <c r="E5" s="97">
+      <c r="E5" s="77">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="100"/>
-      <c r="B6" s="97">
+      <c r="A6" s="97"/>
+      <c r="B6" s="77">
         <v>27</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="97">
+      <c r="C6" s="99"/>
+      <c r="D6" s="77">
         <v>54</v>
       </c>
-      <c r="E6" s="97">
+      <c r="E6" s="77">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="100"/>
-      <c r="B7" s="97">
+      <c r="A7" s="97"/>
+      <c r="B7" s="77">
         <v>28</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="97">
+      <c r="C7" s="99"/>
+      <c r="D7" s="77">
         <v>53</v>
       </c>
-      <c r="E7" s="97">
+      <c r="E7" s="77">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="100"/>
-      <c r="B8" s="97">
+      <c r="A8" s="97"/>
+      <c r="B8" s="77">
         <v>29</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="97">
+      <c r="C8" s="99"/>
+      <c r="D8" s="77">
         <v>52</v>
       </c>
-      <c r="E8" s="97">
+      <c r="E8" s="77">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="100">
+      <c r="A9" s="97">
         <v>2</v>
       </c>
-      <c r="B9" s="97">
+      <c r="B9" s="77">
         <v>30</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="97">
+      <c r="C9" s="99"/>
+      <c r="D9" s="77">
         <v>51</v>
       </c>
-      <c r="E9" s="97">
+      <c r="E9" s="77">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="100"/>
-      <c r="B10" s="97">
+      <c r="A10" s="97"/>
+      <c r="B10" s="77">
         <v>31</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="97">
+      <c r="C10" s="100"/>
+      <c r="D10" s="77">
         <v>50</v>
       </c>
-      <c r="E10" s="97">
+      <c r="E10" s="77">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="100"/>
-      <c r="B11" s="97">
+      <c r="A11" s="97"/>
+      <c r="B11" s="77">
         <v>1</v>
       </c>
-      <c r="C11" s="96">
+      <c r="C11" s="98">
         <v>1</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="77">
         <v>49</v>
       </c>
-      <c r="E11" s="97">
+      <c r="E11" s="77">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="100"/>
-      <c r="B12" s="97">
+      <c r="A12" s="97"/>
+      <c r="B12" s="77">
         <v>2</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="97">
+      <c r="C12" s="99"/>
+      <c r="D12" s="77">
         <v>48</v>
       </c>
-      <c r="E12" s="97">
+      <c r="E12" s="77">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="100"/>
-      <c r="B13" s="97">
+      <c r="A13" s="97"/>
+      <c r="B13" s="77">
         <v>3</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="97">
+      <c r="C13" s="99"/>
+      <c r="D13" s="77">
         <v>47</v>
       </c>
-      <c r="E13" s="97">
+      <c r="E13" s="77">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="100"/>
-      <c r="B14" s="97">
+      <c r="A14" s="97"/>
+      <c r="B14" s="77">
         <v>4</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="97">
+      <c r="C14" s="99"/>
+      <c r="D14" s="77">
         <v>46</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="77">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="100"/>
-      <c r="B15" s="97">
+      <c r="A15" s="97"/>
+      <c r="B15" s="77">
         <v>5</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="97">
+      <c r="C15" s="99"/>
+      <c r="D15" s="77">
         <v>45</v>
       </c>
-      <c r="E15" s="97">
+      <c r="E15" s="77">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="100">
+      <c r="A16" s="97">
         <v>3</v>
       </c>
-      <c r="B16" s="97">
+      <c r="B16" s="77">
         <v>6</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="97">
+      <c r="C16" s="99"/>
+      <c r="D16" s="77">
         <v>44</v>
       </c>
-      <c r="E16" s="97">
+      <c r="E16" s="77">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="100"/>
-      <c r="B17" s="97">
+      <c r="A17" s="97"/>
+      <c r="B17" s="77">
         <v>7</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="97">
+      <c r="C17" s="99"/>
+      <c r="D17" s="77">
         <v>43</v>
       </c>
-      <c r="E17" s="97">
+      <c r="E17" s="77">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="100"/>
-      <c r="B18" s="97">
+      <c r="A18" s="97"/>
+      <c r="B18" s="77">
         <v>8</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="97">
+      <c r="C18" s="99"/>
+      <c r="D18" s="77">
         <v>42</v>
       </c>
-      <c r="E18" s="97">
+      <c r="E18" s="77">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="100"/>
-      <c r="B19" s="97">
+      <c r="A19" s="97"/>
+      <c r="B19" s="77">
         <v>9</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="97">
+      <c r="C19" s="99"/>
+      <c r="D19" s="77">
         <v>41</v>
       </c>
-      <c r="E19" s="97">
+      <c r="E19" s="77">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="100"/>
-      <c r="B20" s="97">
+      <c r="A20" s="97"/>
+      <c r="B20" s="77">
         <v>10</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="97">
+      <c r="C20" s="99"/>
+      <c r="D20" s="77">
         <v>40</v>
       </c>
-      <c r="E20" s="97">
+      <c r="E20" s="77">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="100"/>
-      <c r="B21" s="97">
+      <c r="A21" s="97"/>
+      <c r="B21" s="77">
         <v>11</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="97">
+      <c r="C21" s="99"/>
+      <c r="D21" s="77">
         <v>39</v>
       </c>
-      <c r="E21" s="97">
+      <c r="E21" s="77">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="100"/>
-      <c r="B22" s="97">
+      <c r="A22" s="97"/>
+      <c r="B22" s="77">
         <v>12</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="97">
+      <c r="C22" s="99"/>
+      <c r="D22" s="77">
         <v>38</v>
       </c>
-      <c r="E22" s="97">
+      <c r="E22" s="77">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="100">
+      <c r="A23" s="97">
         <v>4</v>
       </c>
-      <c r="B23" s="97">
+      <c r="B23" s="77">
         <v>13</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="97">
+      <c r="C23" s="99"/>
+      <c r="D23" s="77">
         <v>37</v>
       </c>
-      <c r="E23" s="97">
+      <c r="E23" s="77">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="100"/>
-      <c r="B24" s="97">
+      <c r="A24" s="97"/>
+      <c r="B24" s="77">
         <v>14</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="97">
+      <c r="C24" s="100"/>
+      <c r="D24" s="77">
         <v>36</v>
       </c>
-      <c r="E24" s="97">
+      <c r="E24" s="77">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="100"/>
-      <c r="B25" s="97">
+      <c r="A25" s="97"/>
+      <c r="B25" s="77">
         <v>18</v>
       </c>
-      <c r="C25" s="96">
+      <c r="C25" s="98">
         <v>2</v>
       </c>
-      <c r="D25" s="97">
+      <c r="D25" s="77">
         <v>35</v>
       </c>
-      <c r="E25" s="97">
+      <c r="E25" s="77">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="100"/>
-      <c r="B26" s="97">
+      <c r="A26" s="97"/>
+      <c r="B26" s="77">
         <v>19</v>
       </c>
-      <c r="C26" s="98"/>
-      <c r="D26" s="97">
+      <c r="C26" s="99"/>
+      <c r="D26" s="77">
         <v>34</v>
       </c>
-      <c r="E26" s="97">
+      <c r="E26" s="77">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="100"/>
-      <c r="B27" s="97">
+      <c r="A27" s="97"/>
+      <c r="B27" s="77">
         <v>20</v>
       </c>
-      <c r="C27" s="98"/>
-      <c r="D27" s="97">
+      <c r="C27" s="99"/>
+      <c r="D27" s="77">
         <v>33</v>
       </c>
-      <c r="E27" s="97">
+      <c r="E27" s="77">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="100">
+      <c r="A28" s="97">
         <v>5</v>
       </c>
-      <c r="B28" s="97">
+      <c r="B28" s="77">
         <v>21</v>
       </c>
-      <c r="C28" s="98"/>
-      <c r="D28" s="97">
+      <c r="C28" s="99"/>
+      <c r="D28" s="77">
         <v>32</v>
       </c>
-      <c r="E28" s="97">
+      <c r="E28" s="77">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="100"/>
-      <c r="B29" s="97">
+      <c r="A29" s="97"/>
+      <c r="B29" s="77">
         <v>22</v>
       </c>
-      <c r="C29" s="98"/>
-      <c r="D29" s="97">
+      <c r="C29" s="99"/>
+      <c r="D29" s="77">
         <v>31</v>
       </c>
-      <c r="E29" s="97">
+      <c r="E29" s="77">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="100"/>
-      <c r="B30" s="97">
+      <c r="A30" s="97"/>
+      <c r="B30" s="77">
         <v>23</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="97">
+      <c r="C30" s="99"/>
+      <c r="D30" s="77">
         <v>30</v>
       </c>
-      <c r="E30" s="97">
+      <c r="E30" s="77">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="100"/>
-      <c r="B31" s="97">
+      <c r="A31" s="97"/>
+      <c r="B31" s="77">
         <v>24</v>
       </c>
-      <c r="C31" s="98"/>
-      <c r="D31" s="97">
+      <c r="C31" s="99"/>
+      <c r="D31" s="77">
         <v>28</v>
       </c>
-      <c r="E31" s="97">
+      <c r="E31" s="77">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="100"/>
-      <c r="B32" s="97">
+      <c r="A32" s="97"/>
+      <c r="B32" s="77">
         <v>25</v>
       </c>
-      <c r="C32" s="98"/>
-      <c r="D32" s="97">
+      <c r="C32" s="99"/>
+      <c r="D32" s="77">
         <v>26</v>
       </c>
-      <c r="E32" s="97">
+      <c r="E32" s="77">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="100"/>
-      <c r="B33" s="97">
+      <c r="A33" s="97"/>
+      <c r="B33" s="77">
         <v>26</v>
       </c>
-      <c r="C33" s="98"/>
-      <c r="D33" s="97">
+      <c r="C33" s="99"/>
+      <c r="D33" s="77">
         <v>24</v>
       </c>
-      <c r="E33" s="97">
+      <c r="E33" s="77">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="100">
+      <c r="A34" s="97">
         <v>6</v>
       </c>
-      <c r="B34" s="97">
+      <c r="B34" s="77">
         <v>27</v>
       </c>
-      <c r="C34" s="98"/>
-      <c r="D34" s="97">
+      <c r="C34" s="99"/>
+      <c r="D34" s="77">
         <v>22</v>
       </c>
-      <c r="E34" s="97">
+      <c r="E34" s="77">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="100"/>
-      <c r="B35" s="97">
+      <c r="A35" s="97"/>
+      <c r="B35" s="77">
         <v>28</v>
       </c>
-      <c r="C35" s="98"/>
-      <c r="D35" s="97">
+      <c r="C35" s="99"/>
+      <c r="D35" s="77">
         <v>20</v>
       </c>
-      <c r="E35" s="97">
+      <c r="E35" s="77">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="100"/>
-      <c r="B36" s="97">
+      <c r="A36" s="97"/>
+      <c r="B36" s="77">
         <v>29</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="97">
+      <c r="C36" s="100"/>
+      <c r="D36" s="77">
         <v>18</v>
       </c>
-      <c r="E36" s="97">
+      <c r="E36" s="77">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="100"/>
-      <c r="B37" s="97">
+      <c r="A37" s="97"/>
+      <c r="B37" s="77">
         <v>1</v>
       </c>
-      <c r="C37" s="100">
+      <c r="C37" s="97">
         <v>3</v>
       </c>
-      <c r="D37" s="97">
+      <c r="D37" s="77">
         <v>16</v>
       </c>
-      <c r="E37" s="97">
+      <c r="E37" s="77">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="100"/>
-      <c r="B38" s="97">
+      <c r="A38" s="97"/>
+      <c r="B38" s="77">
         <v>2</v>
       </c>
-      <c r="C38" s="100"/>
-      <c r="D38" s="97">
+      <c r="C38" s="97"/>
+      <c r="D38" s="77">
         <v>14</v>
       </c>
-      <c r="E38" s="97">
+      <c r="E38" s="77">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="100">
+      <c r="A39" s="97">
         <v>7</v>
       </c>
-      <c r="B39" s="97">
+      <c r="B39" s="77">
         <v>3</v>
       </c>
-      <c r="C39" s="100"/>
-      <c r="D39" s="97">
+      <c r="C39" s="97"/>
+      <c r="D39" s="77">
         <v>12</v>
       </c>
-      <c r="E39" s="97">
+      <c r="E39" s="77">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="100"/>
-      <c r="B40" s="97">
+      <c r="A40" s="97"/>
+      <c r="B40" s="77">
         <v>4</v>
       </c>
-      <c r="C40" s="100"/>
-      <c r="D40" s="97">
+      <c r="C40" s="97"/>
+      <c r="D40" s="77">
         <v>10</v>
       </c>
-      <c r="E40" s="97">
+      <c r="E40" s="77">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="100"/>
-      <c r="B41" s="97">
+      <c r="A41" s="97"/>
+      <c r="B41" s="77">
         <v>5</v>
       </c>
-      <c r="C41" s="100"/>
-      <c r="D41" s="97">
+      <c r="C41" s="97"/>
+      <c r="D41" s="77">
         <v>8</v>
       </c>
-      <c r="E41" s="97">
+      <c r="E41" s="77">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="100"/>
-      <c r="B42" s="97">
+      <c r="A42" s="97"/>
+      <c r="B42" s="77">
         <v>6</v>
       </c>
-      <c r="C42" s="100"/>
-      <c r="D42" s="97">
+      <c r="C42" s="97"/>
+      <c r="D42" s="77">
         <v>6</v>
       </c>
-      <c r="E42" s="97">
+      <c r="E42" s="77">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="100"/>
-      <c r="B43" s="97">
+      <c r="A43" s="97"/>
+      <c r="B43" s="77">
         <v>7</v>
       </c>
-      <c r="C43" s="100"/>
-      <c r="D43" s="97">
+      <c r="C43" s="97"/>
+      <c r="D43" s="77">
         <v>4</v>
       </c>
-      <c r="E43" s="97">
+      <c r="E43" s="77">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="100">
+      <c r="A44" s="97">
         <v>8</v>
       </c>
-      <c r="B44" s="97">
+      <c r="B44" s="77">
         <v>8</v>
       </c>
-      <c r="C44" s="100"/>
-      <c r="D44" s="97">
+      <c r="C44" s="97"/>
+      <c r="D44" s="77">
         <v>2</v>
       </c>
-      <c r="E44" s="97">
+      <c r="E44" s="77">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="100"/>
-      <c r="B45" s="97">
+      <c r="A45" s="97"/>
+      <c r="B45" s="77">
         <v>9</v>
       </c>
-      <c r="C45" s="100"/>
-      <c r="D45" s="97">
+      <c r="C45" s="97"/>
+      <c r="D45" s="77">
         <v>0</v>
       </c>
-      <c r="E45" s="97">
+      <c r="E45" s="77">
         <v>44</v>
       </c>
     </row>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B1DE93-2D3A-4556-8299-BFC54D7E10C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD7B487-D1F8-4A8F-8A2F-61EB05A15B39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36418,8 +36418,8 @@
   </sheetPr>
   <dimension ref="A2:T129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H72" sqref="H71:H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -36427,7 +36427,8 @@
     <col min="1" max="1" width="11" style="3"/>
     <col min="2" max="2" width="77" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.75" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.875" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.75" style="3" customWidth="1"/>
     <col min="8" max="8" width="35.125" style="3" bestFit="1" customWidth="1"/>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD7B487-D1F8-4A8F-8A2F-61EB05A15B39}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6473B6A9-85E2-4FCB-B4D0-B6AA49546337}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36418,8 +36418,8 @@
   </sheetPr>
   <dimension ref="A2:T129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H72" sqref="H71:H72"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>

--- a/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Project Monitoring and Control/Module 1/PM_Module1_Ver1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Capstone-Project\Improgress\2. Artifact and Deliverable\Project Monitoring and Control\Module 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6473B6A9-85E2-4FCB-B4D0-B6AA49546337}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3748602A-7AD3-4B54-B268-6A461E232708}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="137">
   <si>
     <t>Đã hoàn thành</t>
   </si>
@@ -484,9 +484,6 @@
     <t>Kết quả (ngày)</t>
   </si>
   <si>
-    <t>Tổng ngày làm dự án (ngày)</t>
-  </si>
-  <si>
     <t>Số tuần</t>
   </si>
   <si>
@@ -497,6 +494,12 @@
   </si>
   <si>
     <t>Tháng</t>
+  </si>
+  <si>
+    <t>Tổng ngày làm dự án kế hoạch (ngày)</t>
+  </si>
+  <si>
+    <t>Tổng ngày làm dự án thực tế (ngày)</t>
   </si>
 </sst>
 </file>
@@ -36418,8 +36421,8 @@
   </sheetPr>
   <dimension ref="A2:T129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E87" sqref="E87:G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
@@ -38705,7 +38708,7 @@
     </row>
     <row r="84" spans="2:20" ht="25.5">
       <c r="E84" s="73" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F84" s="70" t="s">
         <v>129</v>
@@ -38750,12 +38753,21 @@
       <c r="G86" s="4"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="2:20" ht="15" customHeight="1">
+    <row r="87" spans="2:20" ht="38.25">
       <c r="B87" s="68" t="s">
         <v>55</v>
       </c>
       <c r="C87" s="7">
         <v>7</v>
+      </c>
+      <c r="E87" s="73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F87" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="G87" s="70" t="s">
+        <v>130</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="28"/>
@@ -38767,6 +38779,16 @@
       </c>
       <c r="C88" s="7">
         <v>6</v>
+      </c>
+      <c r="E88" s="5">
+        <v>80</v>
+      </c>
+      <c r="F88" s="7">
+        <v>35</v>
+      </c>
+      <c r="G88" s="72">
+        <f>SUM(E88-F88)</f>
+        <v>45</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="28"/>
@@ -39245,16 +39267,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="75" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="75" t="s">
         <v>132</v>
-      </c>
-      <c r="B1" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>133</v>
       </c>
       <c r="E1" s="76" t="s">
         <v>91</v>
